--- a/biology/Zoologie/Cheilosia_mutabilis/Cheilosia_mutabilis.xlsx
+++ b/biology/Zoologie/Cheilosia_mutabilis/Cheilosia_mutabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheilosia mutabilis est une espèce européenne de syrphes. Comme la plupart des espèces du genre Cheilosia, elle est noire et, de ce fait, peut souvent être négligée en tant que syrphe. Elle est peu enregistrée et est considérée comme rare dans la majeure partie de son aire de répartition[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheilosia mutabilis est une espèce européenne de syrphes. Comme la plupart des espèces du genre Cheilosia, elle est noire et, de ce fait, peut souvent être négligée en tant que syrphe. Elle est peu enregistrée et est considérée comme rare dans la majeure partie de son aire de répartition.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cheilosia mutabilis (Fallén, 1817)[2].
-L'espèce a été initialement classée dans le genre Eristalis sous le protonyme Eristalis mutabilis Fallén, 1817[2].
-Cheilosia mutabilis a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cheilosia mutabilis (Fallén, 1817).
+L'espèce a été initialement classée dans le genre Eristalis sous le protonyme Eristalis mutabilis Fallén, 1817.
+Cheilosia mutabilis a pour synonymes :
 Cheilosia placida Meigen, 1838
 Cheilosia pusilla Rondani, 1857
 Eristalis mutabilis Fallén, 1817
